--- a/test/deviceData/macIds1.xlsx
+++ b/test/deviceData/macIds1.xlsx
@@ -24,20 +24,20 @@
     <t>WIFI MAC ID</t>
   </si>
   <si>
-    <t>MacId001</t>
-  </si>
-  <si>
     <t>其它信息</t>
   </si>
   <si>
     <t>xinghao001</t>
+  </si>
+  <si>
+    <t>00:01:6C:06:A6:29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -51,6 +51,11 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,9 +78,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +416,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="A3:C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -420,15 +426,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
